--- a/templates/specs_table_template.xlsx
+++ b/templates/specs_table_template.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Specs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Attribute</t>
   </si>
@@ -46,19 +46,13 @@
     <t>Identity</t>
   </si>
   <si>
-    <t>Sterility</t>
-  </si>
-  <si>
     <t>DP</t>
   </si>
   <si>
     <t>ID-001</t>
   </si>
   <si>
-    <t>ST-001</t>
-  </si>
-  <si>
-    <t>--</t>
+    <t>—</t>
   </si>
   <si>
     <t>P1</t>
@@ -67,13 +61,7 @@
     <t>Meets ID</t>
   </si>
   <si>
-    <t>No growth</t>
-  </si>
-  <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>per USP &lt;71&gt;</t>
   </si>
 </sst>
 </file>
@@ -431,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,48 +459,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
